--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.05968844895366667</v>
+        <v>0.04948524446599999</v>
       </c>
       <c r="R2">
-        <v>0.5371960405830001</v>
+        <v>0.445367200194</v>
       </c>
       <c r="S2">
-        <v>0.01745686279875775</v>
+        <v>0.01831919533035179</v>
       </c>
       <c r="T2">
-        <v>0.01909262038356861</v>
+        <v>0.01936501154726215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
-        <v>0.119804968946</v>
+        <v>0.166727847546</v>
       </c>
       <c r="R3">
-        <v>1.078244720514</v>
+        <v>1.500550627914</v>
       </c>
       <c r="S3">
-        <v>0.03503892197170722</v>
+        <v>0.06172183322854617</v>
       </c>
       <c r="T3">
-        <v>0.03832216839688359</v>
+        <v>0.06524544291575238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.0003429856505555555</v>
+        <v>0.000254675929</v>
       </c>
       <c r="R4">
-        <v>0.003086870855</v>
+        <v>0.002292083361</v>
       </c>
       <c r="S4">
-        <v>0.0001003117612980492</v>
+        <v>9.427978258236791E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001097112580049086</v>
+        <v>9.966207824401529E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.06236144699216666</v>
+        <v>0.0420507261945</v>
       </c>
       <c r="R5">
-        <v>0.374168681953</v>
+        <v>0.252304357167</v>
       </c>
       <c r="S5">
-        <v>0.01823862477846114</v>
+        <v>0.01556697304929883</v>
       </c>
       <c r="T5">
-        <v>0.01329842378621381</v>
+        <v>0.01097044593278365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.0004304877573333334</v>
+        <v>0.001027681429</v>
       </c>
       <c r="R6">
-        <v>0.003874389816000001</v>
+        <v>0.009249132861000001</v>
       </c>
       <c r="S6">
-        <v>0.0001259031830789645</v>
+        <v>0.0003804426357469267</v>
       </c>
       <c r="T6">
-        <v>0.000137700668632205</v>
+        <v>0.0004021615524838998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>0.7814604188849998</v>
+        <v>0.4655422484299999</v>
       </c>
       <c r="R7">
-        <v>7.033143769964999</v>
+        <v>4.18988023587</v>
       </c>
       <c r="S7">
-        <v>0.2285508763299366</v>
+        <v>0.1723414620974529</v>
       </c>
       <c r="T7">
-        <v>0.2499667420431314</v>
+        <v>0.1821801855051855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
         <v>1.56852528183</v>
@@ -948,10 +948,10 @@
         <v>14.11672753647</v>
       </c>
       <c r="S8">
-        <v>0.458740863957516</v>
+        <v>0.5806603832821585</v>
       </c>
       <c r="T8">
-        <v>0.501726184764104</v>
+        <v>0.6138094400176217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.004490478724999998</v>
+        <v>0.002395914295</v>
       </c>
       <c r="R9">
-        <v>0.04041430852499999</v>
+        <v>0.021563228655</v>
       </c>
       <c r="S9">
-        <v>0.001313313922161318</v>
+        <v>0.0008869557468801351</v>
       </c>
       <c r="T9">
-        <v>0.001436375163701577</v>
+        <v>0.0009375907604296781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I10">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J10">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>0.8164561710524998</v>
+        <v>0.3956005437975</v>
       </c>
       <c r="R10">
-        <v>4.898737026314999</v>
+        <v>2.373603262785</v>
       </c>
       <c r="S10">
-        <v>0.2387859562295935</v>
+        <v>0.1464493853233174</v>
       </c>
       <c r="T10">
-        <v>0.1741072519835766</v>
+        <v>0.1032066451513011</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I11">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J11">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.005636084519999999</v>
+        <v>0.009668116794999999</v>
       </c>
       <c r="R11">
-        <v>0.05072476067999999</v>
+        <v>0.08701305115499999</v>
       </c>
       <c r="S11">
-        <v>0.0016483650674893</v>
+        <v>0.003579089523664954</v>
       </c>
       <c r="T11">
-        <v>0.001802821552183375</v>
+        <v>0.003783414538935748</v>
       </c>
     </row>
   </sheetData>
